--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.020821.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.020821.xlsx_with_dialog_acts.xlsx
@@ -635,12 +635,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2435,12 +2435,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2755,12 +2755,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2919,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2959,12 +2959,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3439,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3599,12 +3599,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3679,12 +3679,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4399,12 +4399,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4519,12 +4519,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4559,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4639,12 +4639,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4799,12 +4799,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5039,12 +5039,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5239,12 +5239,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5483,12 +5483,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5883,12 +5883,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5963,12 +5963,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6083,12 +6083,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6363,12 +6363,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7043,12 +7043,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7083,12 +7083,12 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7367,12 +7367,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7527,12 +7527,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7767,12 +7767,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7847,12 +7847,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7887,12 +7887,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7967,12 +7967,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8007,12 +8007,12 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8127,12 +8127,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8407,12 +8407,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8607,12 +8607,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9047,12 +9047,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9127,12 +9127,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9367,12 +9367,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9527,12 +9527,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9807,12 +9807,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10127,12 +10127,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10647,12 +10647,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10847,12 +10847,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11173,12 +11173,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11211,12 +11211,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11325,12 +11325,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11477,12 +11477,12 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11515,12 +11515,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11553,12 +11553,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11667,12 +11667,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12921,12 +12921,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14023,12 +14023,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14555,12 +14555,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -14593,12 +14593,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14745,12 +14745,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14783,12 +14783,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15011,12 +15011,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15049,12 +15049,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15319,12 +15319,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15509,12 +15509,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16383,12 +16383,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16459,12 +16459,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16687,12 +16687,12 @@
       <c r="H413" t="inlineStr"/>
       <c r="I413" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17559,12 +17559,12 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17677,12 +17677,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17943,12 +17943,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17981,12 +17981,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18019,12 +18019,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18095,12 +18095,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18209,12 +18209,12 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18399,12 +18399,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18821,12 +18821,12 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18859,12 +18859,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19353,12 +19353,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19695,12 +19695,12 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19999,12 +19999,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20269,12 +20269,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20611,12 +20611,12 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20995,12 +20995,12 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21185,12 +21185,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21721,12 +21721,12 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21759,12 +21759,12 @@
       <c r="H546" t="inlineStr"/>
       <c r="I546" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J546" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22253,12 +22253,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22519,12 +22519,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23165,12 +23165,12 @@
       <c r="H583" t="inlineStr"/>
       <c r="I583" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23317,12 +23317,12 @@
       <c r="H587" t="inlineStr"/>
       <c r="I587" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23625,12 +23625,12 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23663,12 +23663,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23929,12 +23929,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24309,12 +24309,12 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24461,12 +24461,12 @@
       <c r="H617" t="inlineStr"/>
       <c r="I617" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25031,12 +25031,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26323,12 +26323,12 @@
       <c r="H666" t="inlineStr"/>
       <c r="I666" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J666" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26475,12 +26475,12 @@
       <c r="H670" t="inlineStr"/>
       <c r="I670" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J670" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26969,12 +26969,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27197,12 +27197,12 @@
       <c r="H689" t="inlineStr"/>
       <c r="I689" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27425,12 +27425,12 @@
       <c r="H695" t="inlineStr"/>
       <c r="I695" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27463,12 +27463,12 @@
       <c r="H696" t="inlineStr"/>
       <c r="I696" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J696" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27501,12 +27501,12 @@
       <c r="H697" t="inlineStr"/>
       <c r="I697" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J697" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27881,12 +27881,12 @@
       <c r="H707" t="inlineStr"/>
       <c r="I707" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28759,12 +28759,12 @@
       <c r="H730" t="inlineStr"/>
       <c r="I730" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
